--- a/other/github使用コマンド一覧.xlsx
+++ b/other/github使用コマンド一覧.xlsx
@@ -198,6 +198,27 @@
   </si>
   <si>
     <t>更新されたやつをローカルリポジトリに取り込む</t>
+  </si>
+  <si>
+    <t>ローカルブランチを削除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git </t>
+  </si>
+  <si>
+    <t>https://yu8mada.com/2018/08/13/how-to-delete-both-local-and-remote-branches-in-git/#content-2</t>
+  </si>
+  <si>
+    <t>https://yu8mada.com/2018/08/13/how-to-delete-both-local-and-remote-branches-in-git/</t>
+  </si>
+  <si>
+    <t>マージ済みブランチを削除</t>
+  </si>
+  <si>
+    <t>git branch -D (ブランチ名)</t>
+  </si>
+  <si>
+    <t>マージされていないブランチを削除</t>
   </si>
 </sst>
 </file>
@@ -493,7 +514,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -599,15 +620,46 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/other/github使用コマンド一覧.xlsx
+++ b/other/github使用コマンド一覧.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet state="visible" name="ブランチ作成" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="ローカル環境構築" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="push" sheetId="3" r:id="rId6"/>
+    <sheet name="ファイル削除" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -220,12 +221,66 @@
   <si>
     <t>マージされていないブランチを削除</t>
   </si>
+  <si>
+    <t>https://izumii19.hatenablog.com/entry/2019/05/05/171046</t>
+  </si>
+  <si>
+    <t>ファイル削除</t>
+  </si>
+  <si>
+    <t>リポジトリ追加・削除・確認・変更</t>
+  </si>
+  <si>
+    <t>githubリポジトリにディレクトリやファイル追加</t>
+  </si>
+  <si>
+    <t>git rm ()</t>
+  </si>
+  <si>
+    <t>git rm (ファイル名)</t>
+  </si>
+  <si>
+    <t>ローカルのファイルも一緒に削除</t>
+  </si>
+  <si>
+    <t>git rm -r ()</t>
+  </si>
+  <si>
+    <t>git rm -r (削除したいディレクトリ)</t>
+  </si>
+  <si>
+    <t>ローカルのディレクトリごと一緒に削除</t>
+  </si>
+  <si>
+    <t>git rm -cached ()</t>
+  </si>
+  <si>
+    <t>git rm -cached (削除したいファイル)</t>
+  </si>
+  <si>
+    <t>ローカルのファイルは残して削除</t>
+  </si>
+  <si>
+    <t>git commit -m ""</t>
+  </si>
+  <si>
+    <t>変更をコミット</t>
+  </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>git push origin (ブランチ名)</t>
+  </si>
+  <si>
+    <t>ファイルの削除情報をリモートリポジトリにpush</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -244,6 +299,10 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +312,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin"/>
@@ -268,11 +327,25 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -290,6 +363,20 @@
       <protection/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment/>
       <protection/>
     </xf>
@@ -851,8 +938,8 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -992,16 +1079,24 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="24">
-      <c r="B24" s="1" t="s">
+    <row r="15">
+      <c r="B15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="3" t="s">
+    <row r="17">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1011,4 +1106,118 @@
     <hyperlink r:id="rId2" ref="C25"/>
   </hyperlinks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="true" defaultColWidth="15.1406" defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.29"/>
+    <col customWidth="1" min="2" max="2" width="43.71"/>
+    <col customWidth="1" min="3" max="3" width="81.29"/>
+    <col min="4" max="16384" width="15.1406" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId2"/>
+  </hyperlinks>
+</worksheet>
 </file>
--- a/other/github使用コマンド一覧.xlsx
+++ b/other/github使用コマンド一覧.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1523006\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1523006\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="8715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="ブランチ作成" sheetId="1" r:id="rId1"/>
     <sheet name="ローカル環境構築" sheetId="2" r:id="rId2"/>
     <sheet name="push" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>No</t>
   </si>
@@ -188,145 +188,25 @@
     <t>https://www.sejuku.net/blog/71492</t>
   </si>
   <si>
-    <r>
-      <t>git config --global user.name "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザ名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>git config --global user.email "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メールアドレス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="4"/>
+    <t>git config --global user.name "ユーザ名"</t>
+  </si>
+  <si>
+    <t>git config --global user.email "メールアドレス"</t>
   </si>
   <si>
     <t>更新されたファイルを取り込む</t>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>リモートリポジトリをローカルに追加する</t>
-    <rPh sb="15" eb="17">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>cd (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>作成したローカルパス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ローカルリポジトリを作成するフォルダパスへ移動</t>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>cd (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>作成したフォルダパス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>cd (作成したフォルダパス)</t>
   </si>
   <si>
     <t>ローカルに作られたフォルダに移動(フォルダ内に.gitあるか確認)</t>
-    <rPh sb="5" eb="6">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>githubリポジトリにディレクトリやファイル追加</t>
@@ -335,33 +215,10 @@
     <t>リポジトリ追加・削除・確認・変更</t>
   </si>
   <si>
-    <r>
-      <t>init</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>する場合</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <t>initする場合</t>
   </si>
   <si>
     <t>更新されたファイルをローカルリポジトリに取り込む</t>
-    <rPh sb="20" eb="21">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>https://yu8mada.com/2018/08/13/how-to-delete-both-local-and-remote-branches-in-git/#content-2</t>
@@ -377,13 +234,64 @@
   </si>
   <si>
     <t>マージされていないブランチを削除</t>
+  </si>
+  <si>
+    <t>addして上手くいかない場合</t>
+  </si>
+  <si>
+    <t>4のaddして上手くいかない場合</t>
+  </si>
+  <si>
+    <t>branchの作り方</t>
+  </si>
+  <si>
+    <t>git push --delete orgin (ブランチ名)</t>
+  </si>
+  <si>
+    <t>ローカルリポジトリにブランチを作成</t>
+  </si>
+  <si>
+    <t>マージされていないローカルブランチを削除</t>
+  </si>
+  <si>
+    <t>リモートリポジトリを削除</t>
+  </si>
+  <si>
+    <t>リモートリポジトリのブランチを削除</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>マージする際</t>
+  </si>
+  <si>
+    <t>Git でローカルとリモート両方のブランチを削除する方法</t>
+  </si>
+  <si>
+    <t>.gitのあるフォルダに移動(フォルダ内に.gitあるか確認)</t>
+  </si>
+  <si>
+    <t>git pull origin (ブランチ名)</t>
+  </si>
+  <si>
+    <t>githubリポジトリにディレクトリやファイルを追加</t>
+  </si>
+  <si>
+    <t>gitでよく使うコマンド</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>git tagの使い方まとめ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -434,6 +342,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -443,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -466,11 +386,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -485,6 +509,86 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -705,154 +809,221 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="E18" sqref="E18" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.7109" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="12">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+    <row r="2" ht="12">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+    <row r="3" ht="12">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+    <row r="4" ht="12">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+    <row r="5" ht="12">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="C5" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" ht="12">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+    <row r="7" ht="12">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+    <row r="8" ht="12">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="35"/>
+    </row>
+    <row r="9" ht="12">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" ht="12" customFormat="1" s="31">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" ht="12" customFormat="1" s="31">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+    </row>
+    <row r="12" ht="12" customFormat="1" s="31">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+    </row>
+    <row r="13" ht="12">
+      <c r="A13" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" ht="12">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="12">
+      <c r="A15" s="16">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" s="20"/>
+    <row r="17" customFormat="1" s="20">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" customFormat="1" s="20">
+      <c r="A18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" customFormat="1" s="20">
+      <c r="A19" s="16">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C19" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
+    <row r="20" customFormat="1" s="20">
+      <c r="A20" s="26">
+        <v>2</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="C20" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" s="20">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" customFormat="1" s="20">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="24" ht="12">
+      <c r="B24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>68</v>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -866,17 +1037,17 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" ht="12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -887,19 +1058,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" ht="12">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" ht="12">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -909,19 +1080,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" ht="12">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" ht="12">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -931,7 +1102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" ht="12">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -942,8 +1113,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" ht="12">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -953,7 +1124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" ht="12">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -964,8 +1135,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" ht="12">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -975,7 +1146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" ht="12">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -986,81 +1157,70 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" ht="12">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="14">
+      <c r="B14" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="27">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="16">
+      <c r="A16" s="27">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+    <row r="21">
+      <c r="B21" s="0" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="22" ht="12">
+      <c r="B22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="12">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" ht="12">
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1083,18 +1243,18 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="3" width="81.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" ht="12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1105,143 +1265,149 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" ht="12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="12">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="12">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="5" ht="12">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="6" ht="12">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="12">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" ht="12">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="12">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="12">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" ht="12">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" ht="12" customFormat="1" s="0"/>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C16" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="19">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="20" ht="12">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="12">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
     </row>

--- a/other/github使用コマンド一覧.xlsx
+++ b/other/github使用コマンド一覧.xlsx
@@ -286,12 +286,33 @@
   <si>
     <t>git tagの使い方まとめ</t>
   </si>
+  <si>
+    <t>git clone https://github.com/iizuka246/employee_info</t>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/iizuka246/employee_info</t>
+  </si>
+  <si>
+    <t>cd employee_info</t>
+  </si>
+  <si>
+    <t>cd \employee_info</t>
+  </si>
+  <si>
+    <t>git remote set-url origin https://github.com/iizuka246/employee_info</t>
+  </si>
+  <si>
+    <t>URLを設定していない場合</t>
+  </si>
+  <si>
+    <t>上記で上手くいかない場合</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -354,6 +375,10 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -363,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -490,11 +515,39 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -586,6 +639,29 @@
       <protection/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="bottom"/>
       <protection/>
     </xf>
@@ -810,7 +886,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="E18" sqref="E18" activeCellId="0"/>
+      <selection activeCell="B35" sqref="B35" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1037,13 +1113,13 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10" activeCellId="0"/>
+      <selection activeCell="B9" sqref="B9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7109" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1074,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>58</v>
@@ -1085,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>82</v>
@@ -1140,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>26</v>
@@ -1244,13 +1320,13 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11" activeCellId="0"/>
+      <selection activeCell="B11" sqref="B11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.5703" customWidth="1"/>
     <col min="3" max="3" width="81.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1303,32 +1379,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="12">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="12">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="12">
@@ -1336,10 +1412,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="12">
@@ -1347,67 +1423,69 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="12">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" ht="12">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" ht="12" customFormat="1" s="0"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" ht="12" customFormat="1" s="0"/>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="15">
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16">
-      <c r="A16" s="16">
+      <c r="A16" s="41">
         <v>1</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="s">
+    <row r="17" customFormat="1" s="38">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+    </row>
+    <row r="18" ht="12"/>
+    <row r="20">
+      <c r="B20" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="12">
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" ht="12">
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" ht="12">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
